--- a/data/trans_dic/P38C-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P38C-Provincia-trans_dic.xlsx
@@ -612,7 +612,7 @@
         <v>0.7053985154622884</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.9743850591019143</v>
+        <v>0.9743850591019144</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.7603872416159186</v>
@@ -624,7 +624,7 @@
         <v>0.7328403203831438</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.9802958565800028</v>
+        <v>0.9802958565800031</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6504612437459441</v>
+        <v>0.6495943494517596</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9498036010364284</v>
+        <v>0.9486269550862834</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.70354986266107</v>
+        <v>0.7041558119734305</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9713221990952379</v>
+        <v>0.9699115448462999</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6959019212530809</v>
+        <v>0.6937280714396149</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9673160810553206</v>
+        <v>0.9666162396080091</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7583946143377781</v>
+        <v>0.7583212915812285</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9887571716323946</v>
+        <v>0.9891938279063431</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8063514555978146</v>
+        <v>0.8052146343422004</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9946950530800874</v>
+        <v>0.9945860706178085</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7697470684552224</v>
+        <v>0.7683303028715949</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9890293299631123</v>
+        <v>0.9897423623117539</v>
       </c>
     </row>
     <row r="7">
@@ -694,19 +694,19 @@
         <v>0.8767072844141753</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.7518172007391588</v>
+        <v>0.7518172007391587</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.9429585872526126</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8412512405923701</v>
+        <v>0.8412512405923702</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.9107040863698472</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.7972277952083227</v>
+        <v>0.7972277952083229</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8433886524570005</v>
+        <v>0.8449864234796518</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6979894441111366</v>
+        <v>0.6959055927981648</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9222679073185415</v>
+        <v>0.921710754273427</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8009509028356216</v>
+        <v>0.8005106951370226</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8913419914338284</v>
+        <v>0.8908662788764978</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7639543653661041</v>
+        <v>0.7630430625428659</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9040990149391809</v>
+        <v>0.9060098693037186</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8040762164604374</v>
+        <v>0.8050452518468512</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9613802027934518</v>
+        <v>0.9613296631187884</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8712062626191935</v>
+        <v>0.8736042336116676</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9273765959403154</v>
+        <v>0.9275897297957898</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8274894701780523</v>
+        <v>0.8286661426473507</v>
       </c>
     </row>
     <row r="10">
@@ -782,13 +782,13 @@
         <v>0.9231427730037881</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9737974868153958</v>
+        <v>0.9737974868153957</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.9093943754010375</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.9567357471472157</v>
+        <v>0.9567357471472154</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8595100188163487</v>
+        <v>0.8567013417606857</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8966609988892807</v>
+        <v>0.904621428515152</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8912042554263896</v>
+        <v>0.8923241005482765</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9477840774554617</v>
+        <v>0.9508072918561482</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8876430973120477</v>
+        <v>0.8891368453751844</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9335172453234997</v>
+        <v>0.938088488523881</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9240365156806456</v>
+        <v>0.9232541199077517</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9621706570055022</v>
+        <v>0.9638280961594186</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9488194365620483</v>
+        <v>0.9499788357499513</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9867580813860245</v>
+        <v>0.9885315794831279</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9305637482211266</v>
+        <v>0.9300129169549045</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9705712641404883</v>
+        <v>0.9719112840575769</v>
       </c>
     </row>
     <row r="13">
@@ -870,7 +870,7 @@
         <v>0.9207619788252406</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.8785452148271307</v>
+        <v>0.878545214827131</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8914589714509684</v>
+        <v>0.8917422029898275</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7669129967451803</v>
+        <v>0.7682076712816661</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8861167455070869</v>
+        <v>0.8870452059873154</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8711263829314284</v>
+        <v>0.8755769093770286</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8998957941380947</v>
+        <v>0.8989906903995917</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8417643413512939</v>
+        <v>0.8425050810468457</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9463957447794953</v>
+        <v>0.9487682305310695</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8934914456892735</v>
+        <v>0.8889369322930489</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9451466042135487</v>
+        <v>0.9418497162794692</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9385270198776745</v>
+        <v>0.9399147930541089</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9394211127223041</v>
+        <v>0.9367596485768901</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9102529551117153</v>
+        <v>0.9104018311069074</v>
       </c>
     </row>
     <row r="16">
@@ -940,13 +940,13 @@
         <v>0.7729619928415833</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.7797145913666302</v>
+        <v>0.7797145913666305</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.885323184045257</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.8654563386494196</v>
+        <v>0.8654563386494194</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.830105405251629</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7076633522281602</v>
+        <v>0.7181110628562137</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7205052781057711</v>
+        <v>0.7143440693013096</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.832679010419202</v>
+        <v>0.8360667898538009</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8160552746875143</v>
+        <v>0.8175101617577728</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.795120430854103</v>
+        <v>0.7927303390995351</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7872453819559879</v>
+        <v>0.7848147034995752</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8247094806929895</v>
+        <v>0.8278800189394881</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8330686302212575</v>
+        <v>0.8318937579759377</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9198327791386393</v>
+        <v>0.9206918616110802</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8994514726294875</v>
+        <v>0.9019202955865705</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8624787437088353</v>
+        <v>0.8652670478807039</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8613434183656433</v>
+        <v>0.8593571873850447</v>
       </c>
     </row>
     <row r="19">
@@ -1022,13 +1022,13 @@
         <v>0.8054397135438794</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.9345236418791248</v>
+        <v>0.934523641879125</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.8743811232858515</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9714904230985949</v>
+        <v>0.9714904230985948</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.840571701816982</v>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7543675615635717</v>
+        <v>0.7589097364645331</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8997026355563779</v>
+        <v>0.894960400152946</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8268661714257535</v>
+        <v>0.8278800759294308</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9408004273743924</v>
+        <v>0.9446518938300724</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8073219400336926</v>
+        <v>0.8084993995715746</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.930814136294176</v>
+        <v>0.9323259388070135</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8491468665598754</v>
+        <v>0.8526722555000644</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9622928743489685</v>
+        <v>0.9620994358098729</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9092628309592132</v>
+        <v>0.9089620276112528</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9875385637617858</v>
+        <v>0.9880866498783293</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8710545190623937</v>
+        <v>0.8699469874960903</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9679261000159924</v>
+        <v>0.9701424433224567</v>
       </c>
     </row>
     <row r="22">
@@ -1110,13 +1110,13 @@
         <v>0.7353436043967991</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9095632787522493</v>
+        <v>0.9095632787522492</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.6894664400606623</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.8690267188785011</v>
+        <v>0.8690267188785012</v>
       </c>
     </row>
     <row r="23">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6002043339937247</v>
+        <v>0.5998617533188582</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7863282128712652</v>
+        <v>0.7865959974032324</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7023164262998289</v>
+        <v>0.7010247287068283</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8867261319856264</v>
+        <v>0.8854855116238864</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6625316486768661</v>
+        <v>0.6613707509266452</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8467585563936042</v>
+        <v>0.844452042556124</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6773077541048832</v>
+        <v>0.6804532559314616</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8636190555296462</v>
+        <v>0.8605103231340321</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7705581460548073</v>
+        <v>0.7687586383686019</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9298308769624696</v>
+        <v>0.9299054024137489</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7146772756488221</v>
+        <v>0.7154260367033181</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8884729600861255</v>
+        <v>0.8881458419497322</v>
       </c>
     </row>
     <row r="25">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8680671933076436</v>
+        <v>0.8650604660848984</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.5588780573265775</v>
+        <v>0.5588342111902399</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9251631209329917</v>
+        <v>0.9270276964712274</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.6553515183426627</v>
+        <v>0.6580397035762001</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.9036499721366769</v>
+        <v>0.9045706467141545</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.6212023385079006</v>
+        <v>0.6168659082451895</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9132190704307185</v>
+        <v>0.9118888732978724</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.6345983094741042</v>
+        <v>0.6346256717815589</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9569397716823268</v>
+        <v>0.958835217100472</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.7183715764023814</v>
+        <v>0.7195500423271853</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.9314895669833481</v>
+        <v>0.9307672032940331</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.6706391105635816</v>
+        <v>0.669949669234883</v>
       </c>
     </row>
     <row r="28">
@@ -1268,7 +1268,7 @@
         <v>0.8147396208755932</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.7935776510832028</v>
+        <v>0.7935776510832029</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.8744059359469158</v>
@@ -1280,7 +1280,7 @@
         <v>0.8453082010097103</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.8304626865372768</v>
+        <v>0.8304626865372766</v>
       </c>
     </row>
     <row r="29">
@@ -1291,22 +1291,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.800635928080064</v>
+        <v>0.8018062085413041</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.7768762624246065</v>
+        <v>0.774725107950147</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.862665701263381</v>
+        <v>0.8621662198385857</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8534915717541101</v>
+        <v>0.8543363227658608</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.8357539324567703</v>
+        <v>0.8363310256453034</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.8200778967687002</v>
+        <v>0.8204434622405447</v>
       </c>
     </row>
     <row r="30">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8281184956996255</v>
+        <v>0.8288384068012333</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.811274380042353</v>
+        <v>0.8083306866304452</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8853058656044034</v>
+        <v>0.8855395829301014</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.8767263568064656</v>
+        <v>0.8768999247621044</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.8537749270569657</v>
+        <v>0.85403784843585</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.8404133901640413</v>
+        <v>0.8399799976433635</v>
       </c>
     </row>
     <row r="31">
@@ -1523,22 +1523,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>187931</v>
+        <v>187681</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>302840</v>
+        <v>302465</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>202494</v>
+        <v>202669</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>306997</v>
+        <v>306551</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>401353</v>
+        <v>400099</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>614155</v>
+        <v>613710</v>
       </c>
     </row>
     <row r="7">
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>219115</v>
+        <v>219094</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>315260</v>
+        <v>315400</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>232082</v>
+        <v>231755</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>314384</v>
+        <v>314350</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>443942</v>
+        <v>443125</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>627941</v>
+        <v>628393</v>
       </c>
     </row>
     <row r="8">
@@ -1631,22 +1631,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>416978</v>
+        <v>417768</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>369392</v>
+        <v>368289</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>480608</v>
+        <v>480317</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>437237</v>
+        <v>436997</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>905177</v>
+        <v>904694</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>821343</v>
+        <v>820364</v>
       </c>
     </row>
     <row r="11">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>446994</v>
+        <v>447939</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>425536</v>
+        <v>426048</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>500990</v>
+        <v>500963</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>475590</v>
+        <v>476899</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>941771</v>
+        <v>941988</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>889651</v>
+        <v>890916</v>
       </c>
     </row>
     <row r="12">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>273810</v>
+        <v>272915</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>283339</v>
+        <v>285854</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>298901</v>
+        <v>299277</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>337772</v>
+        <v>338850</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>580478</v>
+        <v>581455</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>627674</v>
+        <v>630747</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>294366</v>
+        <v>294116</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>304039</v>
+        <v>304563</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>318225</v>
+        <v>318613</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>351662</v>
+        <v>352294</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>608546</v>
+        <v>608186</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>652588</v>
+        <v>653489</v>
       </c>
     </row>
     <row r="16">
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>327125</v>
+        <v>327229</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>286170</v>
+        <v>286653</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>342110</v>
+        <v>342469</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>364435</v>
+        <v>366297</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>677651</v>
+        <v>676970</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>666252</v>
+        <v>666839</v>
       </c>
     </row>
     <row r="19">
@@ -1873,22 +1873,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>347285</v>
+        <v>348155</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>333402</v>
+        <v>331702</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>364900</v>
+        <v>363627</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>392632</v>
+        <v>393212</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>707415</v>
+        <v>705411</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>720461</v>
+        <v>720578</v>
       </c>
     </row>
     <row r="20">
@@ -1955,22 +1955,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>149473</v>
+        <v>151680</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>148183</v>
+        <v>146916</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>182013</v>
+        <v>182753</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>185100</v>
+        <v>185430</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>341749</v>
+        <v>340722</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>340474</v>
+        <v>339423</v>
       </c>
     </row>
     <row r="23">
@@ -1981,22 +1981,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>174196</v>
+        <v>174866</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>171333</v>
+        <v>171091</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>201063</v>
+        <v>201251</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>204016</v>
+        <v>204576</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>370700</v>
+        <v>371899</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>372521</v>
+        <v>371662</v>
       </c>
     </row>
     <row r="24">
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>197006</v>
+        <v>198192</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>243556</v>
+        <v>242272</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>224386</v>
+        <v>224661</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>247033</v>
+        <v>248044</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>429918</v>
+        <v>430545</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>496388</v>
+        <v>497195</v>
       </c>
     </row>
     <row r="27">
@@ -2089,22 +2089,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>221758</v>
+        <v>222679</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>260499</v>
+        <v>260447</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>246746</v>
+        <v>246664</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>259305</v>
+        <v>259449</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>463857</v>
+        <v>463267</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>516180</v>
+        <v>517361</v>
       </c>
     </row>
     <row r="28">
@@ -2171,22 +2171,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>388890</v>
+        <v>388668</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>565910</v>
+        <v>566103</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>480528</v>
+        <v>479645</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>679804</v>
+        <v>678853</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>882582</v>
+        <v>881035</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1258564</v>
+        <v>1255136</v>
       </c>
     </row>
     <row r="31">
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>438848</v>
+        <v>440886</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>621535</v>
+        <v>619298</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>527220</v>
+        <v>525989</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>712850</v>
+        <v>712907</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>952047</v>
+        <v>953044</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1320566</v>
+        <v>1320080</v>
       </c>
     </row>
     <row r="32">
@@ -2279,22 +2279,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>667439</v>
+        <v>665127</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>446025</v>
+        <v>445990</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>761607</v>
+        <v>763142</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>544814</v>
+        <v>547049</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1438695</v>
+        <v>1440161</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1012189</v>
+        <v>1005123</v>
       </c>
     </row>
     <row r="35">
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>702155</v>
+        <v>701132</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>506455</v>
+        <v>506477</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>787766</v>
+        <v>789327</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>597205</v>
+        <v>598184</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1483018</v>
+        <v>1481868</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1092741</v>
+        <v>1091618</v>
       </c>
     </row>
     <row r="36">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2688561</v>
+        <v>2692491</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2743413</v>
+        <v>2735816</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>3043291</v>
+        <v>3041529</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>3178459</v>
+        <v>3181605</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>5754841</v>
+        <v>5758815</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>5949996</v>
+        <v>5952649</v>
       </c>
     </row>
     <row r="39">
@@ -2413,22 +2413,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2780848</v>
+        <v>2783266</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2864884</v>
+        <v>2854489</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>3123161</v>
+        <v>3123985</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>3264987</v>
+        <v>3265633</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>5878930</v>
+        <v>5880741</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>6097539</v>
+        <v>6094394</v>
       </c>
     </row>
     <row r="40">
